--- a/Know your Meetup group.xlsx
+++ b/Know your Meetup group.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashwani_jindal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prerak_jain01\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="TeamInfo" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>git.username</t>
   </si>
@@ -130,6 +130,15 @@
 Complete Python Bootcamp: Go from zero to hero in Python (Udemy)
 Machine Learning by Stanford University (Coursera.org)
 Neural Networks and Deep Learning (Coursera.org)</t>
+  </si>
+  <si>
+    <t>Financial Services - ADM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine Learning A-Z™: Hands-On Python &amp; R In Data Science (Udemy) 
+Azure Machine Learning
+70-774: Perform Cloud Data Science with Azure Machine Learning
+</t>
   </si>
 </sst>
 </file>
@@ -465,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -583,9 +592,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
